--- a/Repositorio/Proyecto/DocumentosPropios/GrpL_LBC_181206_LineaBaseCostes_v2.xlsx
+++ b/Repositorio/Proyecto/DocumentosPropios/GrpL_LBC_181206_LineaBaseCostes_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\USC\Cuarto\XesPro\Proxecto\Correcion\Costes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{26FF735E-28B7-420D-84BD-390334A297F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{21AC10F8-4018-4B8A-9910-F697776620D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,8 +100,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -227,7 +228,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,10 +272,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -378,61 +381,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13431.203472222223</c:v>
+                  <c:v>13612.772222222222</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32234.888333333336</c:v>
+                  <c:v>32670.653333333332</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>53724.813888888893</c:v>
+                  <c:v>54451.088888888888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,58 +486,58 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1309.2222222222222</c:v>
+                  <c:v>2891.2222222222226</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2364.4444444444448</c:v>
+                  <c:v>4563.9444444444443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3283.6666666666674</c:v>
+                  <c:v>5362.9166666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4350.8888888888896</c:v>
+                  <c:v>6461.3888888888878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5794.8111111111111</c:v>
+                  <c:v>7477.7511111111098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7429.6333333333323</c:v>
+                  <c:v>8055.4733333333315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8867.855555555554</c:v>
+                  <c:v>9284.9205555555545</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10508.077777777777</c:v>
+                  <c:v>10552.142777777777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12955.3</c:v>
+                  <c:v>12826.754999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14495.655555555555</c:v>
+                  <c:v>14492.660555555556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16381.711111111112</c:v>
+                  <c:v>16108.466111111113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19345.066666666662</c:v>
+                  <c:v>18935.021666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21566.072222222214</c:v>
+                  <c:v>21339.452222222215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23967.727777777764</c:v>
+                  <c:v>23113.647777777765</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26433.133333333313</c:v>
+                  <c:v>25638.453333333317</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28351.188888888864</c:v>
+                  <c:v>28011.508888888868</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30123.844444444414</c:v>
+                  <c:v>29838.314444444419</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31109.073999999964</c:v>
+                  <c:v>31422.359999999971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,8 +1097,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1179,46 +1182,50 @@
       <c r="B4" s="1">
         <v>12.5</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>24</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6">
-        <v>16.399999999999999</v>
+      <c r="I4" s="29">
+        <v>20.248000000000001</v>
+      </c>
+      <c r="J4" s="28">
+        <v>8.5</v>
       </c>
       <c r="K4" s="6">
+        <v>28.24</v>
+      </c>
+      <c r="L4" s="6">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>54</v>
+      </c>
+      <c r="O4" s="6">
+        <v>24.25</v>
+      </c>
+      <c r="P4" s="6">
+        <v>21.25</v>
+      </c>
+      <c r="Q4" s="6">
         <v>28</v>
       </c>
-      <c r="L4" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="M4" s="6">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6">
-        <v>47.6</v>
-      </c>
-      <c r="O4" s="6">
-        <v>23</v>
-      </c>
-      <c r="P4" s="6">
-        <v>24.4</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>28.3</v>
-      </c>
       <c r="R4" s="6">
-        <v>16</v>
+        <v>27.5</v>
       </c>
       <c r="S4" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="T4" s="6"/>
+        <v>16.25</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.25</v>
+      </c>
       <c r="U4" s="6"/>
       <c r="V4" s="3"/>
     </row>
@@ -1235,38 +1242,42 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6">
+        <v>0.25</v>
+      </c>
       <c r="J5" s="6">
-        <v>16.399999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="K5" s="6">
+        <v>28.24</v>
+      </c>
+      <c r="L5" s="6">
+        <v>12</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="Q5" s="6">
         <v>28</v>
       </c>
-      <c r="L5" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="M5" s="6">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="N5" s="6">
-        <v>50</v>
-      </c>
-      <c r="O5" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="P5" s="6">
-        <v>24.4</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>29.8</v>
-      </c>
       <c r="R5" s="6">
-        <v>16</v>
+        <v>27.5</v>
       </c>
       <c r="S5" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="T5" s="6"/>
+        <v>16.25</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0.25</v>
+      </c>
       <c r="U5" s="6"/>
       <c r="V5" s="3"/>
     </row>
@@ -1278,56 +1289,54 @@
         <v>15</v>
       </c>
       <c r="C6" s="6">
-        <v>17</v>
+        <v>52.25</v>
       </c>
       <c r="D6" s="6">
-        <v>43.2</v>
+        <v>60.25</v>
       </c>
       <c r="E6" s="6">
-        <v>35.799999999999997</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6">
         <v>12</v>
       </c>
       <c r="G6" s="6">
-        <v>34.200000000000003</v>
+        <v>22.5</v>
       </c>
       <c r="H6" s="6">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="I6" s="6">
-        <v>14</v>
+        <v>8.75</v>
       </c>
       <c r="J6" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6" s="6">
-        <v>40</v>
+        <v>39.25</v>
       </c>
       <c r="L6" s="6">
-        <v>8.1999999999999993</v>
+        <v>11.75</v>
       </c>
       <c r="M6" s="6">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="N6" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O6" s="6">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="P6" s="6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="6">
-        <v>4.3</v>
-      </c>
+      <c r="S6" s="6"/>
       <c r="T6" s="6">
-        <v>7.7</v>
+        <v>12.25</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="3"/>
@@ -1340,56 +1349,58 @@
         <v>15</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>24.25</v>
+      </c>
+      <c r="D7" s="6">
+        <v>29.25</v>
+      </c>
       <c r="E7" s="6">
-        <v>4.2</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="6">
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="G7" s="6">
-        <v>28.5</v>
+        <v>21.2</v>
       </c>
       <c r="H7" s="6">
-        <v>40</v>
+        <v>7.5</v>
       </c>
       <c r="I7" s="6">
-        <v>40.6</v>
+        <v>32.25</v>
       </c>
       <c r="J7" s="6">
-        <v>16.399999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="K7" s="6">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L7" s="6">
-        <v>27.6</v>
+        <v>28.24</v>
       </c>
       <c r="M7" s="6">
-        <v>9</v>
+        <v>32.25</v>
       </c>
       <c r="N7" s="6">
-        <v>15.6</v>
+        <v>20.25</v>
       </c>
       <c r="O7" s="6">
-        <v>26.6</v>
+        <v>17</v>
       </c>
       <c r="P7" s="6">
-        <v>25.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q7" s="6">
-        <v>14.3</v>
+        <v>19.25</v>
       </c>
       <c r="R7" s="6">
-        <v>19.7</v>
+        <v>25</v>
       </c>
       <c r="S7" s="6">
-        <v>40.299999999999997</v>
+        <v>20</v>
       </c>
       <c r="T7" s="6">
-        <v>7.7</v>
+        <v>35.75</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="3"/>
@@ -1401,36 +1412,48 @@
       <c r="B8" s="1">
         <v>18</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>24</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="J8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.25</v>
+      </c>
       <c r="N8" s="6">
-        <v>32.6</v>
+        <v>1</v>
       </c>
       <c r="O8" s="6">
-        <v>29.4</v>
+        <v>39.25</v>
       </c>
       <c r="P8" s="6">
-        <v>33.5</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="6">
-        <v>32.299999999999997</v>
+        <v>40</v>
       </c>
       <c r="R8" s="6">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="S8" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="T8" s="6"/>
+        <v>20.25</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0.25</v>
+      </c>
       <c r="U8" s="6"/>
       <c r="V8" s="3"/>
     </row>
@@ -1442,56 +1465,58 @@
         <v>22</v>
       </c>
       <c r="C9" s="6">
+        <v>9.75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>16.25</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="6">
         <v>11</v>
       </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="M9" s="6">
-        <v>21</v>
-      </c>
       <c r="N9" s="6">
-        <v>1</v>
+        <v>12.75</v>
       </c>
       <c r="O9" s="6">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P9" s="6">
-        <v>2.0499999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="Q9" s="6">
-        <v>5.35</v>
+        <v>0.25</v>
       </c>
       <c r="R9" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S9" s="6">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T9" s="6">
-        <v>0.16700000000000001</v>
+        <v>4.67</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="3"/>
@@ -1507,7 +1532,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" ref="C11:T11" si="0">$B4*C4</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="0"/>
@@ -1531,51 +1556,51 @@
       </c>
       <c r="I11" s="8">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>253.10000000000002</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>204.99999999999997</v>
+        <v>106.25</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>37.5</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" si="0"/>
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="0"/>
-        <v>287.5</v>
+        <v>303.125</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>265.625</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="0"/>
-        <v>353.75</v>
+        <v>350</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>343.75</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>203.125</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="U11" s="8"/>
       <c r="V11" s="3"/>
@@ -1610,51 +1635,51 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="1"/>
-        <v>204.99999999999997</v>
+        <v>106.25</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="1"/>
-        <v>232.50000000000003</v>
+        <v>37.5</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>618.75</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="1"/>
-        <v>118.75</v>
+        <v>293.75</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="1"/>
-        <v>305</v>
+        <v>103.125</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="1"/>
-        <v>372.5</v>
+        <v>350</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>343.75</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="1"/>
-        <v>96.25</v>
+        <v>203.125</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="U12" s="8"/>
       <c r="V12" s="3"/>
@@ -1665,15 +1690,15 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" ref="C13:T13" si="2">$B6*C6</f>
-        <v>255</v>
+        <v>783.75</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" si="2"/>
-        <v>648</v>
+        <v>903.75</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="2"/>
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="2"/>
@@ -1681,47 +1706,47 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>513</v>
+        <v>337.5</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="2"/>
-        <v>615</v>
+        <v>112.5</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>131.25</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" si="2"/>
-        <v>615</v>
+        <v>570</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>588.75</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="2"/>
-        <v>122.99999999999999</v>
+        <v>176.25</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="2"/>
@@ -1729,11 +1754,11 @@
       </c>
       <c r="S13" s="8">
         <f t="shared" si="2"/>
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="2"/>
-        <v>115.5</v>
+        <v>183.75</v>
       </c>
       <c r="U13" s="8"/>
       <c r="V13" s="3"/>
@@ -1744,75 +1769,75 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" ref="C14:T14" si="3">$B7*C7</f>
-        <v>15</v>
+        <v>363.75</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>438.75</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>3.75</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>213.75</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="3"/>
-        <v>427.5</v>
+        <v>318</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>112.5</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="3"/>
-        <v>609</v>
+        <v>483.75</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="3"/>
-        <v>245.99999999999997</v>
+        <v>127.5</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="3"/>
-        <v>414</v>
+        <v>423.59999999999997</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="3"/>
-        <v>135</v>
+        <v>483.75</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>303.75</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" si="3"/>
-        <v>399</v>
+        <v>255</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="3"/>
-        <v>387</v>
+        <v>97.5</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="3"/>
-        <v>214.5</v>
+        <v>288.75</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="3"/>
-        <v>295.5</v>
+        <v>375</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="3"/>
-        <v>604.5</v>
+        <v>300</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="3"/>
-        <v>115.5</v>
+        <v>536.25</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="3"/>
@@ -1823,7 +1848,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" ref="C15:T15" si="4">$B8*C8</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="4"/>
@@ -1851,47 +1876,47 @@
       </c>
       <c r="J15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="4"/>
-        <v>586.80000000000007</v>
+        <v>18</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="4"/>
-        <v>529.19999999999993</v>
+        <v>706.5</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="4"/>
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="4"/>
-        <v>581.4</v>
+        <v>720</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="4"/>
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="4"/>
-        <v>138.6</v>
+        <v>364.5</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="U15" s="8"/>
     </row>
@@ -1901,75 +1926,75 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" ref="C16:T16" si="5">$B9*C9</f>
-        <v>242</v>
+        <v>214.5</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>357.5</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="5"/>
-        <v>156.19999999999999</v>
+        <v>13.64</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="5"/>
-        <v>72.599999999999994</v>
+        <v>5.5</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.14</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="5"/>
-        <v>162.80000000000001</v>
+        <v>11</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="5"/>
-        <v>462</v>
+        <v>242</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>280.5</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="5"/>
-        <v>45.099999999999994</v>
+        <v>13.64</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="5"/>
-        <v>117.69999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>5.5</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="5"/>
-        <v>3.6740000000000004</v>
+        <v>102.74</v>
       </c>
       <c r="U16" s="8"/>
     </row>
@@ -1982,75 +2007,75 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:U18" si="6">SUM(C11:C16)</f>
-        <v>512</v>
+        <v>2094</v>
       </c>
       <c r="D18">
         <f t="shared" si="6"/>
-        <v>758</v>
+        <v>1375.5</v>
       </c>
       <c r="E18">
         <f t="shared" si="6"/>
-        <v>622</v>
+        <v>501.75</v>
       </c>
       <c r="F18">
         <f t="shared" si="6"/>
-        <v>720</v>
+        <v>751.25</v>
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
-        <v>1096.7</v>
+        <v>669.14</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>1287.5999999999999</v>
+        <v>230.5</v>
       </c>
       <c r="I18">
         <f t="shared" si="6"/>
-        <v>1091</v>
+        <v>882.22500000000002</v>
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
-        <v>1293</v>
+        <v>920</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>1900</v>
+        <v>1727.39</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>789.8</v>
+        <v>915.34999999999991</v>
       </c>
       <c r="M18">
         <f t="shared" si="6"/>
-        <v>1135.5</v>
+        <v>865.25</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>2212.8000000000002</v>
+        <v>2076</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>1470.4499999999998</v>
+        <v>1653.875</v>
       </c>
       <c r="P18">
         <f t="shared" si="6"/>
-        <v>1651.1</v>
+        <v>1023.64</v>
       </c>
       <c r="Q18">
         <f t="shared" si="6"/>
-        <v>1714.8500000000001</v>
+        <v>1774.25</v>
       </c>
       <c r="R18">
         <f t="shared" si="6"/>
-        <v>1167.5</v>
+        <v>1622.5</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>1022.1</v>
+        <v>1076.25</v>
       </c>
       <c r="T18">
         <f t="shared" si="6"/>
-        <v>234.67400000000001</v>
+        <v>833.49</v>
       </c>
       <c r="U18">
         <f t="shared" si="6"/>
@@ -2064,79 +2089,79 @@
       <c r="B19" s="10"/>
       <c r="C19" s="9">
         <f>C18</f>
-        <v>512</v>
+        <v>2094</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" ref="D19:U19" si="7">D18+C19</f>
-        <v>1270</v>
+        <v>3469.5</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="7"/>
-        <v>1892</v>
+        <v>3971.25</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="7"/>
-        <v>2612</v>
+        <v>4722.5</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="7"/>
-        <v>3708.7</v>
+        <v>5391.64</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="7"/>
-        <v>4996.2999999999993</v>
+        <v>5622.14</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="7"/>
-        <v>6087.2999999999993</v>
+        <v>6504.3650000000007</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="7"/>
-        <v>7380.2999999999993</v>
+        <v>7424.3650000000007</v>
       </c>
       <c r="K19" s="9">
         <f t="shared" si="7"/>
-        <v>9280.2999999999993</v>
+        <v>9151.755000000001</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="7"/>
-        <v>10070.099999999999</v>
+        <v>10067.105000000001</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="7"/>
-        <v>11205.599999999999</v>
+        <v>10932.355000000001</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="7"/>
-        <v>13418.399999999998</v>
+        <v>13008.355000000001</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="7"/>
-        <v>14888.849999999999</v>
+        <v>14662.230000000001</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" si="7"/>
-        <v>16539.949999999997</v>
+        <v>15685.87</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" si="7"/>
-        <v>18254.799999999996</v>
+        <v>17460.120000000003</v>
       </c>
       <c r="R19" s="9">
         <f t="shared" si="7"/>
-        <v>19422.299999999996</v>
+        <v>19082.620000000003</v>
       </c>
       <c r="S19" s="9">
         <f t="shared" si="7"/>
-        <v>20444.399999999994</v>
+        <v>20158.870000000003</v>
       </c>
       <c r="T19" s="9">
         <f t="shared" si="7"/>
-        <v>20679.073999999993</v>
-      </c>
-      <c r="U19" s="25">
+        <v>20992.360000000004</v>
+      </c>
+      <c r="U19" s="30">
         <f t="shared" si="7"/>
-        <v>20679.073999999993</v>
+        <v>20992.360000000004</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2640,7 +2665,7 @@
       </c>
       <c r="B31" s="13">
         <f>SUM(U19,B21,B24)</f>
-        <v>31109.073999999993</v>
+        <v>31422.36</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -2660,7 +2685,7 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="27"/>
+      <c r="U31" s="26"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
@@ -2669,77 +2694,77 @@
       <c r="B32" s="16"/>
       <c r="C32" s="17">
         <f>SUM(C19,C22:C23,C25:C29)</f>
-        <v>1309.2222222222222</v>
+        <v>2891.2222222222226</v>
       </c>
       <c r="D32" s="17">
         <f>SUM(C32,D18,D22:D23,D25:D29)</f>
-        <v>2364.4444444444448</v>
+        <v>4563.9444444444443</v>
       </c>
       <c r="E32" s="17">
-        <f t="shared" ref="E32:U32" si="16">SUM(D32,E18,E22:E23,E25:E29)</f>
-        <v>3283.6666666666674</v>
+        <f t="shared" ref="E32:S32" si="16">SUM(D32,E18,E22:E23,E25:E29)</f>
+        <v>5362.9166666666661</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" si="16"/>
-        <v>4350.8888888888896</v>
+        <v>6461.3888888888878</v>
       </c>
       <c r="G32" s="17">
         <f t="shared" si="16"/>
-        <v>5794.8111111111111</v>
+        <v>7477.7511111111098</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="16"/>
-        <v>7429.6333333333323</v>
+        <v>8055.4733333333315</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="16"/>
-        <v>8867.855555555554</v>
+        <v>9284.9205555555545</v>
       </c>
       <c r="J32" s="17">
         <f t="shared" si="16"/>
-        <v>10508.077777777777</v>
+        <v>10552.142777777777</v>
       </c>
       <c r="K32" s="17">
         <f t="shared" si="16"/>
-        <v>12955.3</v>
+        <v>12826.754999999999</v>
       </c>
       <c r="L32" s="17">
         <f t="shared" si="16"/>
-        <v>14495.655555555555</v>
+        <v>14492.660555555556</v>
       </c>
       <c r="M32" s="17">
         <f t="shared" si="16"/>
-        <v>16381.711111111112</v>
+        <v>16108.466111111113</v>
       </c>
       <c r="N32" s="17">
         <f t="shared" si="16"/>
-        <v>19345.066666666662</v>
+        <v>18935.021666666664</v>
       </c>
       <c r="O32" s="17">
         <f t="shared" si="16"/>
-        <v>21566.072222222214</v>
+        <v>21339.452222222215</v>
       </c>
       <c r="P32" s="17">
         <f t="shared" si="16"/>
-        <v>23967.727777777764</v>
+        <v>23113.647777777765</v>
       </c>
       <c r="Q32" s="17">
         <f t="shared" si="16"/>
-        <v>26433.133333333313</v>
+        <v>25638.453333333317</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="16"/>
-        <v>28351.188888888864</v>
+        <v>28011.508888888868</v>
       </c>
       <c r="S32" s="17">
         <f t="shared" si="16"/>
-        <v>30123.844444444414</v>
+        <v>29838.314444444419</v>
       </c>
       <c r="T32" s="17">
         <f>SUM(S32,T18,T22:T23,T25:T29)</f>
-        <v>31109.073999999964</v>
-      </c>
-      <c r="U32" s="28"/>
+        <v>31422.359999999971</v>
+      </c>
+      <c r="U32" s="27"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C34" s="18">
@@ -2757,11 +2782,11 @@
         <v>17</v>
       </c>
       <c r="B35" s="23">
-        <v>53724.813888888893</v>
+        <v>54451.088888888888</v>
       </c>
       <c r="C35" s="20">
         <f>B35*C34</f>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -2772,7 +2797,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="20">
         <f>B35*K34</f>
-        <v>18803.684861111113</v>
+        <v>19057.88111111111</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -2785,7 +2810,7 @@
       <c r="T35" s="21"/>
       <c r="U35" s="20">
         <f>B35*U34</f>
-        <v>21489.925555555557</v>
+        <v>21780.435555555556</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2795,79 +2820,79 @@
       <c r="B36" s="22"/>
       <c r="C36" s="21">
         <f>C35</f>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="D36" s="21">
         <f t="shared" ref="D36:U36" si="17">D35+C36</f>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="17"/>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="F36" s="21">
         <f t="shared" si="17"/>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="17"/>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="H36" s="21">
         <f t="shared" si="17"/>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="17"/>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="J36" s="21">
         <f t="shared" si="17"/>
-        <v>13431.203472222223</v>
+        <v>13612.772222222222</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="L36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="M36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="N36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="O36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="P36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="Q36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="R36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="S36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
+        <v>32670.653333333332</v>
       </c>
       <c r="T36" s="21">
         <f t="shared" si="17"/>
-        <v>32234.888333333336</v>
-      </c>
-      <c r="U36" s="26">
+        <v>32670.653333333332</v>
+      </c>
+      <c r="U36" s="25">
         <f t="shared" si="17"/>
-        <v>53724.813888888893</v>
+        <v>54451.088888888888</v>
       </c>
     </row>
   </sheetData>
